--- a/jmeter/Báo cáo Jmeter.xlsx
+++ b/jmeter/Báo cáo Jmeter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\DATN-Trần Thị Ngọc Anh\jmeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\DATN-VASCARA\jmeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AD89D3-1478-4A01-97B5-1E8F79E319B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B836A90-F9DB-4E5B-A3BE-49FC46EC0C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0561319F-1241-4301-AA24-CE34BEB949AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="106">
   <si>
     <t>Bảng hình ảnh</t>
   </si>
@@ -363,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,12 +414,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -431,7 +425,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -535,30 +535,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,35 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -791,19 +738,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -851,34 +785,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -896,30 +806,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -942,28 +828,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1003,21 +867,65 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </top>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1028,141 +936,119 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1171,77 +1057,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1563,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79517BEB-E643-48D2-B221-A6820741801A}">
   <dimension ref="A1:AU984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.8"/>
@@ -1579,7 +1479,7 @@
     <col min="8" max="8" width="13" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="71" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="15" customWidth="1"/>
     <col min="12" max="27" width="9.5546875" style="6" customWidth="1"/>
     <col min="28" max="16384" width="14" style="6"/>
   </cols>
@@ -1588,18 +1488,18 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:47" ht="44.25" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="6"/>
       <c r="N2" s="6" t="s">
         <v>98</v>
@@ -1612,29 +1512,29 @@
       </c>
     </row>
     <row r="4" spans="1:47" ht="20.25" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="91" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="17" t="s">
         <v>104</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -1642,38 +1542,38 @@
       </c>
     </row>
     <row r="5" spans="1:47" ht="21.75" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="87" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="90"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:47" s="8" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1712,19 +1612,19 @@
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="20">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="23">
         <v>10</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="26">
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1743,16 +1643,16 @@
         <f>AVERAGE(G7:I7)</f>
         <v>26.333333333333332</v>
       </c>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="37"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1769,14 +1669,14 @@
         <f t="shared" ref="J8:J23" si="0">AVERAGE(G8:I8)</f>
         <v>556.33333333333337</v>
       </c>
-      <c r="K8" s="76"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="37"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="10" t="s">
         <v>32</v>
       </c>
@@ -1793,14 +1693,14 @@
         <f t="shared" si="0"/>
         <v>168.33333333333334</v>
       </c>
-      <c r="K9" s="76"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="37"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
@@ -1817,85 +1717,85 @@
         <f t="shared" si="0"/>
         <v>95.333333333333329</v>
       </c>
-      <c r="K10" s="76"/>
-    </row>
-    <row r="11" spans="1:47" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="10" t="s">
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:47" ht="18.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="77"/>
-    </row>
-    <row r="12" spans="1:47" s="83" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:47" s="72" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A13" s="51">
+      <c r="A13" s="35">
         <v>2</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="52">
+      <c r="C13" s="50"/>
+      <c r="D13" s="23">
         <v>100</v>
       </c>
-      <c r="E13" s="41">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>33</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>27</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>44</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>34.666666666666664</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="37"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
@@ -1912,14 +1812,14 @@
         <f t="shared" si="0"/>
         <v>2759.6666666666665</v>
       </c>
-      <c r="K14" s="76"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="37"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
@@ -1936,14 +1836,14 @@
         <f t="shared" si="0"/>
         <v>466.66666666666669</v>
       </c>
-      <c r="K15" s="76"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:47" ht="18.75" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="10" t="s">
         <v>33</v>
       </c>
@@ -1960,83 +1860,85 @@
         <f t="shared" si="0"/>
         <v>283.4666666666667</v>
       </c>
-      <c r="K16" s="76"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="10" t="s">
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="77"/>
-    </row>
-    <row r="18" spans="1:11" s="83" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" s="72" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A19" s="51">
+      <c r="A19" s="35">
         <v>3</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="52">
+      <c r="C19" s="50"/>
+      <c r="D19" s="23">
         <v>1000</v>
       </c>
-      <c r="E19" s="41">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>45</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>47</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>46</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="K19" s="76"/>
+      <c r="K19" s="18" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="37"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="10" t="s">
         <v>31</v>
       </c>
@@ -2053,14 +1955,14 @@
         <f t="shared" si="0"/>
         <v>4217.666666666667</v>
       </c>
-      <c r="K20" s="76"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="37"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
@@ -2077,14 +1979,14 @@
         <f t="shared" si="0"/>
         <v>862</v>
       </c>
-      <c r="K21" s="76"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="37"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="10" t="s">
         <v>33</v>
       </c>
@@ -2101,63 +2003,59 @@
         <f t="shared" si="0"/>
         <v>1048.8333333333333</v>
       </c>
-      <c r="K22" s="76"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="10" t="s">
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="77"/>
-    </row>
-    <row r="24" spans="1:11" s="83" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A25" s="30">
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" s="72" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="76"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="23">
         <v>10</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="26">
         <v>0</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -2176,16 +2074,16 @@
         <f>AVERAGE(G25:I25)</f>
         <v>30.666666666666668</v>
       </c>
-      <c r="K25" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="37"/>
+      <c r="K25" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="10" t="s">
         <v>31</v>
       </c>
@@ -2202,16 +2100,14 @@
         <f t="shared" ref="J26:J41" si="1">AVERAGE(G26:I26)</f>
         <v>611.66666666666663</v>
       </c>
-      <c r="K26" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="37"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="10" t="s">
         <v>32</v>
       </c>
@@ -2228,16 +2124,14 @@
         <f t="shared" si="1"/>
         <v>196.33333333333334</v>
       </c>
-      <c r="K27" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="37"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="10" t="s">
         <v>33</v>
       </c>
@@ -2254,16 +2148,14 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="K28" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="38"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="10" t="s">
         <v>34</v>
       </c>
@@ -2280,39 +2172,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A31" s="51">
+      <c r="A30" s="77"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A31" s="20">
         <v>5</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="52">
+      <c r="C31" s="50"/>
+      <c r="D31" s="36">
         <v>100</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="37">
         <v>0</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -2331,16 +2217,16 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K31" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="37"/>
+      <c r="K31" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="10" t="s">
         <v>31</v>
       </c>
@@ -2357,16 +2243,14 @@
         <f t="shared" si="1"/>
         <v>1190.6666666666667</v>
       </c>
-      <c r="K32" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="37"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="10" t="s">
         <v>32</v>
       </c>
@@ -2383,16 +2267,14 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="K33" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="37"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="10" t="s">
         <v>33</v>
       </c>
@@ -2409,16 +2291,14 @@
         <f t="shared" si="1"/>
         <v>495.3</v>
       </c>
-      <c r="K34" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="38"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="10" t="s">
         <v>34</v>
       </c>
@@ -2435,39 +2315,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K35" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A37" s="51">
+      <c r="A36" s="77"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="67"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A37" s="20">
         <v>6</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="52">
+      <c r="C37" s="50"/>
+      <c r="D37" s="36">
         <v>1000</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="37">
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -2486,16 +2360,16 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K37" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="37"/>
+      <c r="K37" s="60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="10" t="s">
         <v>31</v>
       </c>
@@ -2512,16 +2386,14 @@
         <f t="shared" si="1"/>
         <v>12195.333333333334</v>
       </c>
-      <c r="K38" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="37"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="10" t="s">
         <v>32</v>
       </c>
@@ -2538,16 +2410,14 @@
         <f t="shared" si="1"/>
         <v>2154</v>
       </c>
-      <c r="K39" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="37"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="10" t="s">
         <v>33</v>
       </c>
@@ -2564,16 +2434,14 @@
         <f t="shared" si="1"/>
         <v>486.83333333333331</v>
       </c>
-      <c r="K40" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="37"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="11" t="s">
         <v>34</v>
       </c>
@@ -2586,60 +2454,52 @@
       <c r="I41" s="11">
         <v>0</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A42" s="77"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A44" s="30">
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="70"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A44" s="20">
         <v>8</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="23">
         <v>10</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="26">
         <v>0</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -2658,16 +2518,16 @@
         <f>AVERAGE(G44:I44)</f>
         <v>362.66666666666669</v>
       </c>
-      <c r="K44" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="37"/>
+      <c r="K44" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="10" t="s">
         <v>31</v>
       </c>
@@ -2684,16 +2544,14 @@
         <f t="shared" ref="J45:J48" si="2">AVERAGE(G45:I45)</f>
         <v>427.33333333333331</v>
       </c>
-      <c r="K45" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="37"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="10" t="s">
         <v>32</v>
       </c>
@@ -2710,16 +2568,14 @@
         <f t="shared" si="2"/>
         <v>397</v>
       </c>
-      <c r="K46" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="37"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="10" t="s">
         <v>33</v>
       </c>
@@ -2736,16 +2592,14 @@
         <f t="shared" si="2"/>
         <v>23.466666666666665</v>
       </c>
-      <c r="K47" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="38"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="10" t="s">
         <v>34</v>
       </c>
@@ -2762,39 +2616,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K48" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A50" s="51">
+      <c r="A49" s="77"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A50" s="20">
         <v>9</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="52">
+      <c r="C50" s="50"/>
+      <c r="D50" s="36">
         <v>100</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="37">
         <v>0</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -2813,16 +2661,16 @@
         <f t="shared" ref="J50:J54" si="3">AVERAGE(G50:I50)</f>
         <v>551.66666666666663</v>
       </c>
-      <c r="K50" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="37"/>
+      <c r="K50" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="10" t="s">
         <v>31</v>
       </c>
@@ -2839,16 +2687,14 @@
         <f t="shared" si="3"/>
         <v>1180.6666666666667</v>
       </c>
-      <c r="K51" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="37"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A52" s="21"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2865,16 +2711,14 @@
         <f t="shared" si="3"/>
         <v>1001.6666666666666</v>
       </c>
-      <c r="K52" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="37"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="10" t="s">
         <v>33</v>
       </c>
@@ -2891,16 +2735,14 @@
         <f t="shared" si="3"/>
         <v>83.8</v>
       </c>
-      <c r="K53" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="38"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="10" t="s">
         <v>34</v>
       </c>
@@ -2917,39 +2759,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K54" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A56" s="51">
+      <c r="A55" s="77"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="64"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A56" s="20">
         <v>10</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="52">
+      <c r="C56" s="50"/>
+      <c r="D56" s="36">
         <v>1000</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="37">
         <v>0</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -2968,16 +2804,16 @@
         <f t="shared" ref="J56:J60" si="4">AVERAGE(G56:I56)</f>
         <v>436.66666666666669</v>
       </c>
-      <c r="K56" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A57" s="31"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="37"/>
+      <c r="K56" s="60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A57" s="21"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="10" t="s">
         <v>31</v>
       </c>
@@ -2994,16 +2830,14 @@
         <f t="shared" si="4"/>
         <v>5106.666666666667</v>
       </c>
-      <c r="K57" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="37"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A58" s="21"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="10" t="s">
         <v>32</v>
       </c>
@@ -3020,16 +2854,14 @@
         <f t="shared" si="4"/>
         <v>1830.3333333333333</v>
       </c>
-      <c r="K58" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="37"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A59" s="21"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="10" t="s">
         <v>33</v>
       </c>
@@ -3046,16 +2878,14 @@
         <f t="shared" si="4"/>
         <v>126.66666666666667</v>
       </c>
-      <c r="K59" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="38"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="10" t="s">
         <v>34</v>
       </c>
@@ -3072,56 +2902,48 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K60" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K60" s="19"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A61" s="62"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A63" s="30">
+      <c r="A62" s="68"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="70"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A63" s="20">
         <v>11</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="23">
         <v>10</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="26">
         <v>0</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -3140,16 +2962,16 @@
         <f>AVERAGE(G63:I63)</f>
         <v>383.66666666666669</v>
       </c>
-      <c r="K63" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A64" s="31"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="37"/>
+      <c r="K63" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A64" s="21"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="10" t="s">
         <v>31</v>
       </c>
@@ -3166,16 +2988,14 @@
         <f t="shared" ref="J64:J67" si="5">AVERAGE(G64:I64)</f>
         <v>454</v>
       </c>
-      <c r="K64" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A65" s="31"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="37"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A65" s="21"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="10" t="s">
         <v>32</v>
       </c>
@@ -3192,16 +3012,14 @@
         <f t="shared" si="5"/>
         <v>408.33333333333331</v>
       </c>
-      <c r="K65" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A66" s="31"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="37"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="10" t="s">
         <v>33</v>
       </c>
@@ -3218,16 +3036,14 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="K66" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K66" s="18"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A67" s="32"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="38"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="10" t="s">
         <v>34</v>
       </c>
@@ -3244,39 +3060,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K67" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A69" s="51">
+      <c r="A68" s="77"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="64"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A69" s="20">
         <v>12</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="52">
+      <c r="C69" s="50"/>
+      <c r="D69" s="36">
         <v>100</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="37">
         <v>0</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -3295,16 +3105,16 @@
         <f t="shared" ref="J69:J73" si="6">AVERAGE(G69:I69)</f>
         <v>1296</v>
       </c>
-      <c r="K69" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A70" s="31"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="37"/>
+      <c r="K69" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A70" s="21"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="10" t="s">
         <v>31</v>
       </c>
@@ -3321,16 +3131,14 @@
         <f t="shared" si="6"/>
         <v>2603</v>
       </c>
-      <c r="K70" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A71" s="31"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="37"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A71" s="21"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="10" t="s">
         <v>32</v>
       </c>
@@ -3347,16 +3155,14 @@
         <f t="shared" si="6"/>
         <v>2061</v>
       </c>
-      <c r="K71" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A72" s="31"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="37"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A72" s="21"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="10" t="s">
         <v>33</v>
       </c>
@@ -3373,16 +3179,14 @@
         <f t="shared" si="6"/>
         <v>38.4</v>
       </c>
-      <c r="K72" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A73" s="32"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="38"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="10" t="s">
         <v>34</v>
       </c>
@@ -3399,39 +3203,33 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K73" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K73" s="19"/>
     </row>
     <row r="74" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A75" s="51">
+      <c r="A74" s="77"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="64"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A75" s="20">
         <v>13</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="52">
+      <c r="C75" s="50"/>
+      <c r="D75" s="36">
         <v>1000</v>
       </c>
-      <c r="E75" s="41">
+      <c r="E75" s="37">
         <v>0</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -3450,16 +3248,16 @@
         <f t="shared" ref="J75:J78" si="7">AVERAGE(G75:I75)</f>
         <v>4820.666666666667</v>
       </c>
-      <c r="K75" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A76" s="31"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="37"/>
+      <c r="K75" s="60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A76" s="21"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="10" t="s">
         <v>31</v>
       </c>
@@ -3476,16 +3274,14 @@
         <f t="shared" si="7"/>
         <v>42869</v>
       </c>
-      <c r="K76" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A77" s="31"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="37"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A77" s="21"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="10" t="s">
         <v>32</v>
       </c>
@@ -3502,16 +3298,14 @@
         <f t="shared" si="7"/>
         <v>21822.666666666668</v>
       </c>
-      <c r="K77" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A78" s="31"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="37"/>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A78" s="21"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="10" t="s">
         <v>33</v>
       </c>
@@ -3528,16 +3322,14 @@
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
-      <c r="K78" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K78" s="18"/>
     </row>
     <row r="79" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A79" s="32"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="38"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="10" t="s">
         <v>34</v>
       </c>
@@ -3554,56 +3346,48 @@
         <f>AVERAGE(G79:I79)</f>
         <v>0</v>
       </c>
-      <c r="K79" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K79" s="19"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A80" s="77"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A81" s="27"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A82" s="42">
+      <c r="A81" s="68"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="70"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A82" s="47">
         <v>16</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D82" s="23">
         <v>80</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="26" t="s">
         <v>97</v>
       </c>
       <c r="F82" s="9" t="s">
@@ -3622,16 +3406,16 @@
         <f>AVERAGE(G82:I82)</f>
         <v>440.66666666666669</v>
       </c>
-      <c r="K82" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A83" s="30"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="37"/>
+      <c r="K82" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A83" s="20"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="10" t="s">
         <v>31</v>
       </c>
@@ -3648,16 +3432,14 @@
         <f t="shared" ref="J83:J85" si="8">AVERAGE(G83:I83)</f>
         <v>1968.3333333333333</v>
       </c>
-      <c r="K83" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="37"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A84" s="20"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="10" t="s">
         <v>32</v>
       </c>
@@ -3674,16 +3456,14 @@
         <f t="shared" si="8"/>
         <v>833</v>
       </c>
-      <c r="K84" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="37"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A85" s="20"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="10" t="s">
         <v>33</v>
       </c>
@@ -3700,16 +3480,14 @@
         <f t="shared" si="8"/>
         <v>17.466666666666669</v>
       </c>
-      <c r="K85" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K85" s="18"/>
     </row>
     <row r="86" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A86" s="43"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="38"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="28"/>
       <c r="F86" s="10" t="s">
         <v>34</v>
       </c>
@@ -3726,56 +3504,48 @@
         <f>AVERAGE(G86:I86)</f>
         <v>0</v>
       </c>
-      <c r="K86" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A87" s="14"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K86" s="19"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A87" s="61"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A88" s="27"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A89" s="30">
+      <c r="A88" s="68"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="70"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A89" s="20">
         <v>17</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="33">
+      <c r="D89" s="23">
         <v>80</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="26" t="s">
         <v>97</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -3794,16 +3564,16 @@
         <f>AVERAGE(G89:I89)</f>
         <v>445.33333333333331</v>
       </c>
-      <c r="K89" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="37"/>
+      <c r="K89" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A90" s="21"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="27"/>
       <c r="F90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3820,16 +3590,14 @@
         <f t="shared" ref="J90:J92" si="9">AVERAGE(G90:I90)</f>
         <v>2512.6666666666665</v>
       </c>
-      <c r="K90" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A91" s="31"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="37"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A91" s="21"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="27"/>
       <c r="F91" s="10" t="s">
         <v>32</v>
       </c>
@@ -3846,16 +3614,14 @@
         <f t="shared" si="9"/>
         <v>671.66666666666663</v>
       </c>
-      <c r="K91" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A92" s="31"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="37"/>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A92" s="21"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="27"/>
       <c r="F92" s="10" t="s">
         <v>33</v>
       </c>
@@ -3872,16 +3638,14 @@
         <f t="shared" si="9"/>
         <v>15.966666666666667</v>
       </c>
-      <c r="K92" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K92" s="18"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A93" s="32"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="38"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="28"/>
       <c r="F93" s="10" t="s">
         <v>34</v>
       </c>
@@ -3898,56 +3662,48 @@
         <f>AVERAGE(G93:I93)</f>
         <v>0</v>
       </c>
-      <c r="K93" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A94" s="14"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K93" s="19"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A94" s="61"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="64"/>
     </row>
     <row r="95" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A95" s="27"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A96" s="30">
+      <c r="A95" s="68"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="70"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A96" s="20">
         <v>18</v>
       </c>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="33">
+      <c r="D96" s="23">
         <v>40</v>
       </c>
-      <c r="E96" s="36">
+      <c r="E96" s="26">
         <v>0</v>
       </c>
       <c r="F96" s="9" t="s">
@@ -3966,16 +3722,16 @@
         <f>AVERAGE(G96:I96)</f>
         <v>425</v>
       </c>
-      <c r="K96" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A97" s="31"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="37"/>
+      <c r="K96" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A97" s="21"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="10" t="s">
         <v>31</v>
       </c>
@@ -3992,16 +3748,14 @@
         <f t="shared" ref="J97:J99" si="10">AVERAGE(G97:I97)</f>
         <v>1273</v>
       </c>
-      <c r="K97" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A98" s="31"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="37"/>
+      <c r="K97" s="18"/>
+    </row>
+    <row r="98" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A98" s="21"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="10" t="s">
         <v>32</v>
       </c>
@@ -4018,16 +3772,14 @@
         <f t="shared" si="10"/>
         <v>659.66666666666663</v>
       </c>
-      <c r="K98" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A99" s="31"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="37"/>
+      <c r="K98" s="18"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A99" s="21"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="27"/>
       <c r="F99" s="10" t="s">
         <v>33</v>
       </c>
@@ -4044,16 +3796,14 @@
         <f t="shared" si="10"/>
         <v>32.56666666666667</v>
       </c>
-      <c r="K99" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K99" s="18"/>
     </row>
     <row r="100" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A100" s="32"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="38"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="28"/>
       <c r="F100" s="10" t="s">
         <v>34</v>
       </c>
@@ -4070,56 +3820,48 @@
         <f>AVERAGE(G100:I100)</f>
         <v>0</v>
       </c>
-      <c r="K100" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A101" s="14"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K100" s="19"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A101" s="61"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="64"/>
     </row>
     <row r="102" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A102" s="27"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A103" s="30">
+      <c r="A102" s="68"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="70"/>
+    </row>
+    <row r="103" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A103" s="20">
         <v>18</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="33">
+      <c r="D103" s="23">
         <v>500</v>
       </c>
-      <c r="E103" s="36">
+      <c r="E103" s="26">
         <v>1</v>
       </c>
       <c r="F103" s="9" t="s">
@@ -4138,16 +3880,16 @@
         <f>AVERAGE(G103:I103)</f>
         <v>584.33333333333337</v>
       </c>
-      <c r="K103" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A104" s="31"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="37"/>
+      <c r="K103" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A104" s="21"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="27"/>
       <c r="F104" s="10" t="s">
         <v>31</v>
       </c>
@@ -4164,16 +3906,14 @@
         <f t="shared" ref="J104:J107" si="11">AVERAGE(G104:I104)</f>
         <v>3678.6666666666665</v>
       </c>
-      <c r="K104" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A105" s="31"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="37"/>
+      <c r="K104" s="18"/>
+    </row>
+    <row r="105" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A105" s="21"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="27"/>
       <c r="F105" s="10" t="s">
         <v>32</v>
       </c>
@@ -4190,16 +3930,14 @@
         <f t="shared" si="11"/>
         <v>1336</v>
       </c>
-      <c r="K105" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A106" s="31"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="37"/>
+      <c r="K105" s="18"/>
+    </row>
+    <row r="106" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A106" s="21"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="27"/>
       <c r="F106" s="10" t="s">
         <v>33</v>
       </c>
@@ -4216,52 +3954,44 @@
         <f t="shared" si="11"/>
         <v>120.63333333333333</v>
       </c>
-      <c r="K106" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A107" s="32"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="10" t="s">
+      <c r="K106" s="18"/>
+    </row>
+    <row r="107" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A107" s="22"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G107" s="10">
-        <v>0</v>
-      </c>
-      <c r="H107" s="10">
-        <v>0</v>
-      </c>
-      <c r="I107" s="10">
-        <v>0</v>
-      </c>
-      <c r="J107" s="12">
+      <c r="G107" s="11">
+        <v>0</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <v>0</v>
+      </c>
+      <c r="J107" s="90">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K107" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="K107" s="18"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A108" s="16"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="63"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="A108" s="71"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="93"/>
     </row>
     <row r="109" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="110" spans="1:11" ht="18.75" customHeight="1"/>
@@ -5140,38 +4870,100 @@
     <row r="983" ht="15" customHeight="1"/>
     <row r="984" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="D108:J108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
+  <mergeCells count="128">
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="D94:K94"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="D101:K101"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="D108:K108"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K56:K60"/>
+    <mergeCell ref="K63:K67"/>
+    <mergeCell ref="K103:K107"/>
+    <mergeCell ref="K96:K100"/>
+    <mergeCell ref="K89:K93"/>
+    <mergeCell ref="K82:K86"/>
+    <mergeCell ref="K69:K73"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="D61:K61"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="D68:K68"/>
+    <mergeCell ref="D74:K74"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="C7:C24"/>
+    <mergeCell ref="C25:C42"/>
+    <mergeCell ref="C44:C61"/>
+    <mergeCell ref="C63:C80"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="A37:A41"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D36:J36"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="D44:D48"/>
     <mergeCell ref="E44:E48"/>
-    <mergeCell ref="D49:J49"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="D7:D11"/>
@@ -5186,71 +4978,34 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E19:E23"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="C7:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="C25:C42"/>
-    <mergeCell ref="C44:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="C63:C80"/>
-    <mergeCell ref="D80:J80"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D87:J87"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="D101:J101"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="A88:J88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 K4:K5 K7 K12:K13 K18:K19 K24:K1048576" xr:uid="{EBF10E7F-9FAC-4B3F-B80D-0038FB15AFC9}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{EBF10E7F-9FAC-4B3F-B80D-0038FB15AFC9}">
       <formula1>$I$4:$I$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K109:K1048576 K37:K41 K31:K35 K44:K48 K50:K54 K56:K60 K63:K67 K69:K73 K75:K79 K82:K86 K89:K93 K96:K100 K103:K107 K1:K23 K25:K29" xr:uid="{2876B217-8659-44DF-A18E-4E7A8DC52FAF}">
+      <formula1>$N$2:$N$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5285,16 +5040,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -5377,10 +5132,10 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="56"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
@@ -5463,10 +5218,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="56"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
@@ -5549,10 +5304,10 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="56"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
@@ -5635,10 +5390,10 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="69"/>
+      <c r="B50" s="59"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
@@ -5665,10 +5420,10 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="70"/>
+      <c r="B54" s="54"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
@@ -5695,10 +5450,10 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="70"/>
+      <c r="B58" s="54"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
@@ -5725,10 +5480,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="70"/>
+      <c r="B62" s="54"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
